--- a/Raw Source.xlsx
+++ b/Raw Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklyfung/Desktop/Inno_Surveying/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklyfung/Desktop/VS Studio Code/Inno_Surveying/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CD6D5-3E65-F849-A02E-0AFC66ADAB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE466FB6-8E6C-CB41-89C4-EE2747BC631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="980" windowWidth="22920" windowHeight="16440" xr2:uid="{7A8889CD-AB7B-413F-B37D-CA48894BF60F}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="16440" xr2:uid="{7A8889CD-AB7B-413F-B37D-CA48894BF60F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resi_D1" sheetId="2" r:id="rId1"/>
@@ -3078,8 +3078,8 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
@@ -5073,8 +5073,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
@@ -5084,21 +5084,21 @@
     <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.83203125" style="1" bestFit="1" customWidth="1"/>

--- a/Raw Source.xlsx
+++ b/Raw Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklyfung/Desktop/VS Studio Code/Inno_Surveying/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE466FB6-8E6C-CB41-89C4-EE2747BC631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BEF4F-2550-3A41-BC2B-3C37C911DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="16440" xr2:uid="{7A8889CD-AB7B-413F-B37D-CA48894BF60F}"/>
+    <workbookView xWindow="0" yWindow="2760" windowWidth="28800" windowHeight="14180" activeTab="1" xr2:uid="{7A8889CD-AB7B-413F-B37D-CA48894BF60F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resi_D1" sheetId="2" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="235">
   <si>
     <t>Index</t>
   </si>
@@ -941,10 +941,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>PSAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Floor</t>
@@ -2754,7 +2750,7 @@
     <tableColumn id="6" xr3:uid="{20EF78A5-58BB-435C-A6E9-E52FBED88894}" uniqueName="6" name="Occupation Date" queryTableFieldId="6" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{11287764-728F-476D-A3EE-769DA1CFAE7B}" uniqueName="7" name="Building Name" queryTableFieldId="7" dataDxfId="16"/>
     <tableColumn id="8" xr3:uid="{172CA3EF-8413-494D-A2F0-D242490B1FF3}" uniqueName="8" name="Address" queryTableFieldId="8" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{D2ED099E-1E39-4F15-BAE5-6B549D706D33}" uniqueName="23" name="PSAP" queryTableFieldId="26" dataDxfId="14" dataCellStyle="一般 2"/>
+    <tableColumn id="23" xr3:uid="{D2ED099E-1E39-4F15-BAE5-6B549D706D33}" uniqueName="23" name="PASP" queryTableFieldId="26" dataDxfId="14" dataCellStyle="一般 2"/>
     <tableColumn id="9" xr3:uid="{709BF2B8-02D1-49DC-B4C8-AAAC7A748232}" uniqueName="9" name="Ins. Date" queryTableFieldId="9" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{A0B7D680-5AB3-4028-B161-88070FEB55DB}" uniqueName="10" name="Floor" queryTableFieldId="10" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{98C90D9C-C3A1-4466-A393-CE484281834B}" uniqueName="11" name="Unit" queryTableFieldId="11" dataDxfId="11"/>
@@ -3078,7 +3074,7 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5073,8 +5069,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
@@ -5084,21 +5080,21 @@
     <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -5134,13 +5130,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
@@ -5184,7 +5180,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -5193,16 +5189,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="12">
         <v>42678</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I2" s="12">
         <v>44643</v>
@@ -5214,14 +5210,14 @@
         <v>76</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M2" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O2" s="5">
         <v>214</v>
@@ -5245,7 +5241,7 @@
         <v>33</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>35</v>
@@ -5256,7 +5252,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -5265,16 +5261,16 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="12">
         <v>42678</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I3" s="12">
         <v>44560</v>
@@ -5283,7 +5279,7 @@
         <v>44560</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>44</v>
@@ -5317,7 +5313,7 @@
         <v>59</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>35</v>
@@ -5328,7 +5324,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -5337,16 +5333,16 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="12">
         <v>42678</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I4" s="12">
         <v>44528</v>
@@ -5389,7 +5385,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>35</v>
@@ -5400,7 +5396,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -5409,16 +5405,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="12">
         <v>42678</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I5" s="12">
         <v>44505</v>
@@ -5430,7 +5426,7 @@
         <v>97</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M5" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -5461,7 +5457,7 @@
         <v>33</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>35</v>
@@ -5472,7 +5468,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -5481,16 +5477,16 @@
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="12">
         <v>42678</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I6" s="12">
         <v>44486</v>
@@ -5533,7 +5529,7 @@
         <v>33</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -5544,7 +5540,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -5553,16 +5549,16 @@
         <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="12">
         <v>42678</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I7" s="12">
         <v>44460</v>
@@ -5574,14 +5570,14 @@
         <v>79</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O7" s="5">
         <v>214</v>
@@ -5602,10 +5598,10 @@
         <v>44546</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>35</v>
@@ -5616,7 +5612,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -5625,16 +5621,16 @@
         <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="12">
         <v>42678</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I8" s="12">
         <v>44460</v>
@@ -5646,14 +5642,14 @@
         <v>79</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M8" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O8" s="5">
         <v>214</v>
@@ -5677,7 +5673,7 @@
         <v>33</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>35</v>
@@ -5688,7 +5684,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
@@ -5697,16 +5693,16 @@
         <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="12">
         <v>42678</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I9" s="12">
         <v>44458</v>
@@ -5749,7 +5745,7 @@
         <v>33</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>35</v>
@@ -5760,7 +5756,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -5769,16 +5765,16 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="12">
         <v>42678</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I10" s="12">
         <v>44449</v>
@@ -5787,7 +5783,7 @@
         <v>44462</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>39</v>
@@ -5821,7 +5817,7 @@
         <v>33</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>35</v>
@@ -5832,7 +5828,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -5841,16 +5837,16 @@
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="12">
         <v>42678</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I11" s="12">
         <v>44438</v>
@@ -5862,14 +5858,14 @@
         <v>57</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O11" s="5">
         <v>214</v>
@@ -5893,7 +5889,7 @@
         <v>33</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>35</v>
@@ -5904,7 +5900,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
@@ -5913,16 +5909,16 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="12">
         <v>42678</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I12" s="12">
         <v>44414</v>
@@ -5931,17 +5927,17 @@
         <v>44442</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O12" s="5">
         <v>214</v>
@@ -5965,7 +5961,7 @@
         <v>33</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>35</v>
@@ -5976,7 +5972,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -5985,16 +5981,16 @@
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="12">
         <v>42678</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I13" s="12">
         <v>44438</v>
@@ -6006,14 +6002,14 @@
         <v>57</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O13" s="5">
         <v>214</v>
@@ -6037,7 +6033,7 @@
         <v>59</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>35</v>
@@ -6048,7 +6044,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>25</v>
@@ -6057,16 +6053,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="12">
         <v>42678</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I14" s="12">
         <v>44420</v>
@@ -6109,7 +6105,7 @@
         <v>33</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>35</v>
@@ -6120,7 +6116,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -6129,16 +6125,16 @@
         <v>26</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="12">
         <v>42678</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I15" s="12">
         <v>44395</v>
@@ -6147,7 +6143,7 @@
         <v>44428</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>39</v>
@@ -6181,7 +6177,7 @@
         <v>33</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>35</v>
@@ -6192,7 +6188,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -6201,16 +6197,16 @@
         <v>26</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="12">
         <v>42678</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I16" s="12">
         <v>44414</v>
@@ -6219,17 +6215,17 @@
         <v>44414</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O16" s="5">
         <v>214</v>
@@ -6253,7 +6249,7 @@
         <v>59</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>35</v>
@@ -6264,7 +6260,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>25</v>
@@ -6273,16 +6269,16 @@
         <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="12">
         <v>42678</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I17" s="12">
         <v>44395</v>
@@ -6291,7 +6287,7 @@
         <v>44395</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>39</v>
@@ -6325,7 +6321,7 @@
         <v>59</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>35</v>
@@ -6336,7 +6332,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>25</v>
@@ -6345,16 +6341,16 @@
         <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="12">
         <v>42678</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I18" s="12">
         <v>44373</v>
@@ -6397,7 +6393,7 @@
         <v>33</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>35</v>
@@ -6408,7 +6404,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>25</v>
@@ -6417,16 +6413,16 @@
         <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="12">
         <v>42678</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I19" s="12">
         <v>44369</v>
@@ -6469,7 +6465,7 @@
         <v>33</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>35</v>
@@ -6480,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>25</v>
@@ -6489,16 +6485,16 @@
         <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="12">
         <v>42678</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I20" s="12">
         <v>44363</v>
@@ -6507,17 +6503,17 @@
         <v>44363</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M20" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O20" s="5">
         <v>214</v>
@@ -6541,7 +6537,7 @@
         <v>59</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>35</v>
@@ -6552,7 +6548,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>25</v>
@@ -6561,16 +6557,16 @@
         <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="12">
         <v>42678</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I21" s="12">
         <v>44335</v>
@@ -6613,7 +6609,7 @@
         <v>33</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>35</v>
@@ -6624,7 +6620,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>25</v>
@@ -6633,16 +6629,16 @@
         <v>26</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="12">
         <v>42678</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I22" s="12">
         <v>44298</v>
@@ -6654,7 +6650,7 @@
         <v>91</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -6685,7 +6681,7 @@
         <v>33</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>35</v>
@@ -6696,7 +6692,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>25</v>
@@ -6705,16 +6701,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F23" s="12">
         <v>42678</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I23" s="12">
         <v>44293</v>
@@ -6757,7 +6753,7 @@
         <v>33</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>35</v>
@@ -6768,7 +6764,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>25</v>
@@ -6777,16 +6773,16 @@
         <v>26</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24" s="12">
         <v>42678</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I24" s="12">
         <v>44291</v>
@@ -6795,7 +6791,7 @@
         <v>44302</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>39</v>
@@ -6829,7 +6825,7 @@
         <v>33</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>35</v>
@@ -6840,7 +6836,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
@@ -6849,16 +6845,16 @@
         <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="12">
         <v>42678</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I25" s="12">
         <v>44287</v>
@@ -6901,7 +6897,7 @@
         <v>33</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>35</v>
@@ -6912,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>25</v>
@@ -6921,16 +6917,16 @@
         <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="12">
         <v>42678</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I26" s="12">
         <v>44284</v>
@@ -6942,7 +6938,7 @@
         <v>30</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M26" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -6973,7 +6969,7 @@
         <v>33</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>35</v>
@@ -6984,7 +6980,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>25</v>
@@ -6993,16 +6989,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="12">
         <v>42678</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I27" s="12">
         <v>44210</v>
@@ -7011,7 +7007,7 @@
         <v>44223</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>31</v>
@@ -7045,7 +7041,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W27" s="5" t="s">
         <v>35</v>
@@ -7056,7 +7052,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>25</v>
@@ -7065,16 +7061,16 @@
         <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="12">
         <v>42678</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I28" s="12">
         <v>44182</v>
@@ -7083,7 +7079,7 @@
         <v>44196</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>44</v>
@@ -7117,7 +7113,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>35</v>
@@ -7128,7 +7124,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>25</v>
@@ -7137,16 +7133,16 @@
         <v>26</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="12">
         <v>42678</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I29" s="12">
         <v>44142</v>
@@ -7155,17 +7151,17 @@
         <v>44155</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M29" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O29" s="5">
         <v>214</v>
@@ -7189,7 +7185,7 @@
         <v>33</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>35</v>
@@ -7200,7 +7196,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>25</v>
@@ -7209,16 +7205,16 @@
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="12">
         <v>42678</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I30" s="12">
         <v>44118</v>
@@ -7227,7 +7223,7 @@
         <v>44138</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>31</v>
@@ -7261,7 +7257,7 @@
         <v>33</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>35</v>
@@ -7272,7 +7268,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>25</v>
@@ -7281,16 +7277,16 @@
         <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="12">
         <v>42678</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I31" s="12">
         <v>44122</v>
@@ -7333,10 +7329,10 @@
         <v>33</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -7344,7 +7340,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>25</v>
@@ -7353,16 +7349,16 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" s="12">
         <v>42678</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I32" s="12">
         <v>44121</v>
@@ -7371,7 +7367,7 @@
         <v>44121</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>39</v>
@@ -7405,7 +7401,7 @@
         <v>59</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>35</v>
@@ -7416,7 +7412,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>25</v>
@@ -7425,16 +7421,16 @@
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F33" s="12">
         <v>42678</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I33" s="12">
         <v>44118</v>
@@ -7443,7 +7439,7 @@
         <v>44118</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>31</v>
@@ -7477,7 +7473,7 @@
         <v>59</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>35</v>
@@ -7488,7 +7484,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>25</v>
@@ -7497,16 +7493,16 @@
         <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="12">
         <v>42678</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I34" s="12">
         <v>44064</v>
@@ -7549,7 +7545,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>35</v>
@@ -7560,7 +7556,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>25</v>
@@ -7569,16 +7565,16 @@
         <v>26</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="12">
         <v>42678</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I35" s="12">
         <v>44033</v>
@@ -7590,7 +7586,7 @@
         <v>88</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M35" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -7621,7 +7617,7 @@
         <v>33</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>35</v>
@@ -7632,7 +7628,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>25</v>
@@ -7641,16 +7637,16 @@
         <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="12">
         <v>42678</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I36" s="12">
         <v>44033</v>
@@ -7662,7 +7658,7 @@
         <v>88</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M36" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -7693,7 +7689,7 @@
         <v>59</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>35</v>
@@ -7704,7 +7700,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>25</v>
@@ -7713,16 +7709,16 @@
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" s="12">
         <v>42678</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I37" s="12">
         <v>43979</v>
@@ -7734,14 +7730,14 @@
         <v>30</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M37" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="5">
         <v>214</v>
@@ -7765,7 +7761,7 @@
         <v>33</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>35</v>
@@ -7776,7 +7772,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>25</v>
@@ -7785,16 +7781,16 @@
         <v>26</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="12">
         <v>42678</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I38" s="12">
         <v>43971</v>
@@ -7837,7 +7833,7 @@
         <v>33</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>35</v>
@@ -7848,7 +7844,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>25</v>
@@ -7857,16 +7853,16 @@
         <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="12">
         <v>42678</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I39" s="12">
         <v>43962</v>
@@ -7909,7 +7905,7 @@
         <v>33</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>35</v>
@@ -7920,7 +7916,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>25</v>
@@ -7929,16 +7925,16 @@
         <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="12">
         <v>42678</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I40" s="12">
         <v>43952</v>
@@ -7981,7 +7977,7 @@
         <v>33</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>35</v>
@@ -7992,7 +7988,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>25</v>
@@ -8001,16 +7997,16 @@
         <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="12">
         <v>42678</v>
       </c>
       <c r="G41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I41" s="12">
         <v>43919</v>
@@ -8053,7 +8049,7 @@
         <v>33</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>35</v>
@@ -8064,7 +8060,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>25</v>
@@ -8073,16 +8069,16 @@
         <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" s="12">
         <v>42678</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I42" s="12">
         <v>43921</v>
@@ -8091,7 +8087,7 @@
         <v>43936</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>31</v>
@@ -8125,7 +8121,7 @@
         <v>33</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>35</v>
@@ -8136,7 +8132,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>25</v>
@@ -8145,16 +8141,16 @@
         <v>26</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" s="12">
         <v>42678</v>
       </c>
       <c r="G43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I43" s="12">
         <v>43908</v>
@@ -8197,7 +8193,7 @@
         <v>33</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>35</v>
@@ -8208,7 +8204,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>25</v>
@@ -8217,16 +8213,16 @@
         <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F44" s="12">
         <v>42678</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I44" s="12">
         <v>43919</v>
@@ -8269,7 +8265,7 @@
         <v>59</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>35</v>
@@ -8280,7 +8276,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>25</v>
@@ -8289,16 +8285,16 @@
         <v>26</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" s="12">
         <v>42678</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I45" s="12">
         <v>43914</v>
@@ -8310,7 +8306,7 @@
         <v>79</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M45" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
@@ -8341,7 +8337,7 @@
         <v>59</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>35</v>
@@ -8349,10 +8345,10 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>25</v>
@@ -8361,16 +8357,16 @@
         <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" s="12">
         <v>42678</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I46" s="12">
         <v>43584</v>
@@ -8382,14 +8378,14 @@
         <v>43</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M46" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O46" s="5">
         <v>214</v>
@@ -8413,7 +8409,7 @@
         <v>33</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>35</v>
@@ -8421,10 +8417,10 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>25</v>
@@ -8433,16 +8429,16 @@
         <v>26</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="12">
         <v>42678</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I47" s="12">
         <v>43576</v>
@@ -8485,7 +8481,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>35</v>
@@ -8493,10 +8489,10 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>25</v>
@@ -8505,16 +8501,16 @@
         <v>26</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" s="12">
         <v>42678</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I48" s="12">
         <v>43549</v>
@@ -8523,7 +8519,7 @@
         <v>43563</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>44</v>
@@ -8557,7 +8553,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>35</v>
@@ -8565,10 +8561,10 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>25</v>
@@ -8577,16 +8573,16 @@
         <v>26</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="12">
         <v>42678</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I49" s="12">
         <v>43542</v>
@@ -8595,17 +8591,17 @@
         <v>43556</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M49" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O49" s="5">
         <v>214</v>
@@ -8629,7 +8625,7 @@
         <v>33</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>35</v>
@@ -8637,10 +8633,10 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>25</v>
@@ -8649,16 +8645,16 @@
         <v>26</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F50" s="12">
         <v>42678</v>
       </c>
       <c r="G50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I50" s="12">
         <v>43351</v>
@@ -8670,14 +8666,14 @@
         <v>65</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M50" s="8">
         <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
         <v>19.899999999999999</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O50" s="5">
         <v>214</v>
@@ -8701,7 +8697,7 @@
         <v>33</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>35</v>
@@ -8709,10 +8705,10 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>25</v>
@@ -8721,16 +8717,16 @@
         <v>26</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="12">
         <v>42678</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I51" s="12">
         <v>43113</v>
@@ -8773,7 +8769,7 @@
         <v>33</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W51" s="5" t="s">
         <v>35</v>
@@ -8781,10 +8777,10 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>25</v>
@@ -8793,16 +8789,16 @@
         <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F52" s="12">
         <v>42678</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I52" s="12">
         <v>43106</v>
@@ -8845,7 +8841,7 @@
         <v>33</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>35</v>
@@ -8853,10 +8849,10 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -8865,16 +8861,16 @@
         <v>26</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F53" s="12">
         <v>42678</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I53" s="12">
         <v>43099</v>
@@ -8917,7 +8913,7 @@
         <v>33</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W53" s="5" t="s">
         <v>35</v>
@@ -8925,10 +8921,10 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>25</v>
@@ -8937,16 +8933,16 @@
         <v>26</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F54" s="12">
         <v>42678</v>
       </c>
       <c r="G54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I54" s="12">
         <v>43087</v>
@@ -8989,7 +8985,7 @@
         <v>33</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>35</v>
@@ -8997,10 +8993,10 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>25</v>
@@ -9009,16 +9005,16 @@
         <v>26</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" s="12">
         <v>42678</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I55" s="12">
         <v>42982</v>
@@ -9061,7 +9057,7 @@
         <v>33</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W55" s="5" t="s">
         <v>35</v>
@@ -9069,10 +9065,10 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>25</v>
@@ -9081,16 +9077,16 @@
         <v>26</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F56" s="12">
         <v>42678</v>
       </c>
       <c r="G56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I56" s="12">
         <v>42976</v>
@@ -9133,7 +9129,7 @@
         <v>33</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>35</v>
@@ -9141,10 +9137,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>25</v>
@@ -9153,16 +9149,16 @@
         <v>26</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F57" s="12">
         <v>42678</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I57" s="12">
         <v>42869</v>
@@ -9205,7 +9201,7 @@
         <v>33</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W57" s="5" t="s">
         <v>35</v>
@@ -9213,10 +9209,10 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>25</v>
@@ -9225,16 +9221,16 @@
         <v>26</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F58" s="12">
         <v>42678</v>
       </c>
       <c r="G58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="6">
@@ -9275,7 +9271,7 @@
         <v>33</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>35</v>
@@ -9283,10 +9279,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>25</v>
@@ -9295,16 +9291,16 @@
         <v>26</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F59" s="12">
         <v>42678</v>
       </c>
       <c r="G59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="6">
@@ -9345,7 +9341,7 @@
         <v>33</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W59" s="5">
         <v>0</v>

--- a/Raw Source.xlsx
+++ b/Raw Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklyfung/Desktop/VS Studio Code/Inno_Surveying/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BEF4F-2550-3A41-BC2B-3C37C911DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D2D20-02EA-C94A-BBDF-8AE967BF3A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2760" windowWidth="28800" windowHeight="14180" activeTab="1" xr2:uid="{7A8889CD-AB7B-413F-B37D-CA48894BF60F}"/>
   </bookViews>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="232">
   <si>
     <t>Index</t>
   </si>
@@ -1316,15 +1316,6 @@
   </si>
   <si>
     <t>D3242714 </t>
-  </si>
-  <si>
-    <t>17052400680019 </t>
-  </si>
-  <si>
-    <t>D3242893 </t>
-  </si>
-  <si>
-    <t>17051900070012 </t>
   </si>
 </sst>
 </file>
@@ -3074,7 +3065,7 @@
   </sheetPr>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5069,8 +5060,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
@@ -9208,144 +9199,54 @@
       </c>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" s="12">
-        <v>42678</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="6">
-        <v>42864</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M58" s="8">
-        <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
-        <v>44.4</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="5">
-        <v>478</v>
-      </c>
-      <c r="P58" s="8">
-        <v>2.95</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>9.6020000000000003</v>
-      </c>
-      <c r="R58" s="5">
-        <v>9602000</v>
-      </c>
-      <c r="S58" s="5">
-        <v>20088</v>
-      </c>
-      <c r="T58" s="6">
-        <v>42879</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23">
-      <c r="A59" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F59" s="12">
-        <v>42678</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="6">
-        <v>42853</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M59" s="8">
-        <f>ROUND(Resi_D2_2[[#This Row],[Area(N)(ft2)]]*0.09290304,1)</f>
-        <v>42.4</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="5">
-        <v>456</v>
-      </c>
-      <c r="P59" s="8">
-        <v>2.95</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>8.8689999999999998</v>
-      </c>
-      <c r="R59" s="5">
-        <v>8869000</v>
-      </c>
-      <c r="S59" s="5">
-        <v>19450</v>
-      </c>
-      <c r="T59" s="6">
-        <v>42874</v>
-      </c>
-      <c r="U59" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V59" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="W59" s="5">
-        <v>0</v>
-      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
